--- a/output_data/charts/capacity-ClintonTownshipFranklin-0700000US390491611299999.xlsx
+++ b/output_data/charts/capacity-ClintonTownshipFranklin-0700000US390491611299999.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -519,7 +519,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,7 +871,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -883,25 +883,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>73500</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15200</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14700</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36250</c:v>
+                  <c:v>36.25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22390</c:v>
+                  <c:v>22.39</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75560</c:v>
+                  <c:v>75.56</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49446</c:v>
+                  <c:v>49.446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>73500</v>
+        <v>73.5</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>15200</v>
+        <v>15.2</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>14700</v>
+        <v>14.7</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>36250</v>
+        <v>36.25</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>22390</v>
+        <v>22.39</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>75560</v>
+        <v>75.56</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>49446</v>
+        <v>49.446</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-ClintonTownshipFranklin-0700000US390491611299999.xlsx
+++ b/output_data/charts/capacity-ClintonTownshipFranklin-0700000US390491611299999.xlsx
@@ -519,7 +519,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.84</c:v>
+                  <c:v>23.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +901,7 @@
                   <c:v>75.56</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49.446</c:v>
+                  <c:v>86.33199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>3.84</v>
+        <v>23.04</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>49.446</v>
+        <v>86.33199999999999</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
